--- a/outputs-HGR-r202-archive3/g__CAG-964.xlsx
+++ b/outputs-HGR-r202-archive3/g__CAG-964.xlsx
@@ -447,17 +447,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>prediction</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>max</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>rejection-f</t>
         </is>
       </c>
     </row>
@@ -470,18 +470,18 @@
       <c r="B2" t="n">
         <v>8.244543474309125</v>
       </c>
-      <c r="C2" t="n">
-        <v>8.244543474309125</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>s__CAG-964 sp000435335</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>s__CAG-964 sp000435335</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>s__CAG-964 sp000435335</t>
-        </is>
+      <c r="E2" t="n">
+        <v>0.9997373809691441</v>
       </c>
     </row>
   </sheetData>
